--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_19-25.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_19-25.xlsx
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>ليفه اطفال اشكال</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -3705,13 +3708,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3719,37 +3722,63 @@
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
-      <c r="K108" s="10">
-        <v>4373.6400000000003</v>
-      </c>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-    </row>
-    <row r="109" ht="17.25" customHeight="1">
-      <c t="s" r="A109" s="11">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
+        <v>141</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
         <v>142</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c t="s" r="F109" s="12">
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>45</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="K109" s="10">
+        <v>4393.6400000000003</v>
+      </c>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="11">
         <v>143</v>
       </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
-      <c t="s" r="I109" s="14">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c t="s" r="F110" s="12">
         <v>144</v>
       </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="13"/>
+      <c t="s" r="I110" s="14">
+        <v>145</v>
+      </c>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
+  <mergeCells count="326">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4069,10 +4098,13 @@
     <mergeCell ref="B107:G107"/>
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
-    <mergeCell ref="K108:N108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="I109:N109"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="K109:N109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="I110:N110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
